--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_3_26.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_3_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1936005.352760731</v>
+        <v>1934117.771244329</v>
       </c>
     </row>
     <row r="7">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,7 +671,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>328.4378163475058</v>
+        <v>272.4723691583515</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -716,13 +716,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -829,16 +829,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>22.98569063694824</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,16 +905,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>39.49951815376878</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>124.7906123341839</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>158.343721026685</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>142.6271181085172</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,19 +1133,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,22 +1178,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>115.4314953055858</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>287.2841839626593</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>30.54110646053131</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>72.59495661421178</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -1576,13 +1576,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>25.97775513683657</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>205.4934995506955</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>102.7138880213143</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1819,19 +1819,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>68.79560271998244</v>
       </c>
     </row>
     <row r="17">
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2005,22 +2005,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>79.5471631421415</v>
+        <v>115.5269768002175</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,10 +2053,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T21" t="n">
         <v>192.9654699154601</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,22 +2287,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>202.8923031881765</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,19 +2476,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633775</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037927</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>53.60348078206474</v>
+        <v>161.4046520073177</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>16.97175332133562</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633775</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.4192454642719</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,19 +2767,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>244.6137096542888</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2795,7 +2795,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2807,10 +2807,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,22 +2947,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533804</v>
+        <v>124.6287235533803</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700709</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965546</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801227</v>
+        <v>91.23070601801214</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437434</v>
+        <v>90.21779139437422</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348207</v>
+        <v>45.40012322653461</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523589</v>
+        <v>54.76109577523578</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298323</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700204</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952711</v>
+        <v>196.934386695271</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080341</v>
+        <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
-        <v>153.9215471175831</v>
+        <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235379</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,22 +3187,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329079</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I34" t="n">
         <v>42.28735533463131</v>
@@ -3323,7 +3323,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373689</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I37" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>80.78193823789549</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463135</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463135</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>546.109828622464</v>
+        <v>1216.807289433107</v>
       </c>
       <c r="C2" t="n">
-        <v>546.109828622464</v>
+        <v>847.844772492695</v>
       </c>
       <c r="D2" t="n">
-        <v>546.109828622464</v>
+        <v>489.5790738859445</v>
       </c>
       <c r="E2" t="n">
-        <v>546.109828622464</v>
+        <v>489.5790738859445</v>
       </c>
       <c r="F2" t="n">
-        <v>539.1643278732605</v>
+        <v>482.6335731367411</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4328,19 +4328,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4364,16 +4364,16 @@
         <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982757</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y2" t="n">
-        <v>546.109828622464</v>
+        <v>1603.407129497228</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4407,25 +4407,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>698.7120650600561</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C4" t="n">
-        <v>698.7120650600561</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D4" t="n">
-        <v>698.7120650600561</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
-        <v>550.798971477663</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>403.9090239797526</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>234.9092237180851</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>77.1608511506152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>77.1608511506152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2107.607341885688</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C5" t="n">
-        <v>2107.607341885688</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2657.250587832597</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2481.073100146768</v>
+        <v>2571.09796744834</v>
       </c>
       <c r="T5" t="n">
-        <v>2481.073100146768</v>
+        <v>2571.09796744834</v>
       </c>
       <c r="U5" t="n">
-        <v>2481.073100146768</v>
+        <v>2317.336182086431</v>
       </c>
       <c r="V5" t="n">
-        <v>2481.073100146768</v>
+        <v>2317.336182086431</v>
       </c>
       <c r="W5" t="n">
-        <v>2481.073100146768</v>
+        <v>1964.567526816317</v>
       </c>
       <c r="X5" t="n">
-        <v>2107.607341885688</v>
+        <v>1964.567526816317</v>
       </c>
       <c r="Y5" t="n">
-        <v>2107.607341885688</v>
+        <v>1574.428194840505</v>
       </c>
     </row>
     <row r="6">
@@ -4620,73 +4620,73 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>372.9958041606071</v>
+        <v>538.7689125078493</v>
       </c>
       <c r="C7" t="n">
-        <v>204.0596212327002</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y7" t="n">
-        <v>554.6442689908469</v>
+        <v>698.7120650600564</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
         <v>53.94298182036445</v>
@@ -4802,13 +4802,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2580.55162101258</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2580.55162101258</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2326.789835650672</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>1995.726948307101</v>
       </c>
       <c r="W8" t="n">
-        <v>2351.934357141989</v>
+        <v>1642.958293036987</v>
       </c>
       <c r="X8" t="n">
-        <v>1978.468598880909</v>
+        <v>1269.492534775907</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>1269.492534775907</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>698.7120650600564</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C10" t="n">
-        <v>667.8624625746712</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D10" t="n">
-        <v>517.7458231623355</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F10" t="n">
         <v>222.942782082032</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600564</v>
+        <v>625.3838260558018</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600564</v>
+        <v>625.3838260558018</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.7120650600564</v>
+        <v>404.5912469122717</v>
       </c>
     </row>
     <row r="11">
@@ -5024,10 +5024,10 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
@@ -5039,10 +5039,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5051,13 +5051,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5066,10 +5066,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
@@ -5118,22 +5118,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>233.7852434110091</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>644.6755122555218</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>844.1942894808744</v>
+        <v>509.2863307027308</v>
       </c>
       <c r="C13" t="n">
-        <v>675.2581065529675</v>
+        <v>509.2863307027308</v>
       </c>
       <c r="D13" t="n">
-        <v>675.2581065529675</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E13" t="n">
-        <v>527.3450129705744</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G13" t="n">
-        <v>359.169691290395</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
         <v>208.7516828383384</v>
@@ -5200,10 +5200,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.785188168807</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M13" t="n">
         <v>779.063975947119</v>
@@ -5224,25 +5224,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U13" t="n">
-        <v>1361.601010415852</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V13" t="n">
-        <v>1361.601010415852</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="W13" t="n">
-        <v>1072.183840378892</v>
+        <v>898.5039869983195</v>
       </c>
       <c r="X13" t="n">
-        <v>844.1942894808744</v>
+        <v>690.9347955329705</v>
       </c>
       <c r="Y13" t="n">
-        <v>844.1942894808744</v>
+        <v>690.9347955329705</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5261,13 +5261,13 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5276,25 +5276,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5312,16 +5312,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.9727323706982</v>
+        <v>734.8632439327645</v>
       </c>
       <c r="C16" t="n">
-        <v>653.9727323706982</v>
+        <v>565.9270610048576</v>
       </c>
       <c r="D16" t="n">
-        <v>653.9727323706982</v>
+        <v>415.8104215925218</v>
       </c>
       <c r="E16" t="n">
-        <v>506.0596387883054</v>
+        <v>415.8104215925218</v>
       </c>
       <c r="F16" t="n">
-        <v>359.1696912903951</v>
+        <v>415.8104215925218</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123424</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5437,19 +5437,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1395.16486851617</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1395.16486851617</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1171.379453305676</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>1171.379453305676</v>
+        <v>986.0022165609663</v>
       </c>
       <c r="V16" t="n">
-        <v>1171.379453305676</v>
+        <v>986.0022165609663</v>
       </c>
       <c r="W16" t="n">
-        <v>881.9622832687155</v>
+        <v>986.0022165609663</v>
       </c>
       <c r="X16" t="n">
-        <v>653.9727323706982</v>
+        <v>986.0022165609663</v>
       </c>
       <c r="Y16" t="n">
-        <v>653.9727323706982</v>
+        <v>916.5117087630042</v>
       </c>
     </row>
     <row r="17">
@@ -5504,7 +5504,7 @@
         <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
@@ -5513,25 +5513,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5540,22 +5540,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5595,19 +5595,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>644.6755122555218</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>734.0220331715246</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C19" t="n">
-        <v>734.0220331715246</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D19" t="n">
-        <v>583.9053937591889</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E19" t="n">
-        <v>435.9923001767957</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F19" t="n">
-        <v>289.1023526788853</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5701,22 +5701,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V19" t="n">
-        <v>1244.231782352015</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W19" t="n">
-        <v>954.8146123150548</v>
+        <v>441.9005583181189</v>
       </c>
       <c r="X19" t="n">
-        <v>954.8146123150548</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y19" t="n">
-        <v>734.0220331715246</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="20">
@@ -5726,37 +5726,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805464</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5765,37 +5765,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5817,34 +5817,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>233.7852434110079</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>644.6755122555206</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>891.4406401619849</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>822.9089152986054</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>653.9727323706985</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>653.9727323706985</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>506.0596387883054</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5911,13 +5911,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557903</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>1293.974550165806</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>1293.974550165806</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>1004.557380128845</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>1004.557380128845</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>1004.557380128845</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5963,13 +5963,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
@@ -5978,7 +5978,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -5990,25 +5990,25 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6020,19 +6020,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6054,34 +6054,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>233.785243411008</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>644.6755122555207</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>891.4406401619849</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>731.335182978618</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>562.3990000507112</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>412.2823606383755</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>412.2823606383755</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688074</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471197</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119729</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.921157035282</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T25" t="n">
-        <v>1187.921157035282</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>1187.921157035282</v>
+        <v>986.0022165609666</v>
       </c>
       <c r="V25" t="n">
-        <v>1187.921157035282</v>
+        <v>731.3177283550798</v>
       </c>
       <c r="W25" t="n">
-        <v>1187.921157035282</v>
+        <v>441.9005583181192</v>
       </c>
       <c r="X25" t="n">
-        <v>1133.776226952388</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y25" t="n">
-        <v>912.9836478088577</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6209,28 +6209,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6260,16 +6260,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6312,7 +6312,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>846.3978353108168</v>
+        <v>282.5355983135318</v>
       </c>
       <c r="C28" t="n">
-        <v>677.46165238291</v>
+        <v>282.5355983135318</v>
       </c>
       <c r="D28" t="n">
-        <v>527.3450129705742</v>
+        <v>282.5355983135318</v>
       </c>
       <c r="E28" t="n">
-        <v>527.3450129705742</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F28" t="n">
-        <v>527.3450129705742</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903949</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383383</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347409</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>1275.130855347409</v>
+        <v>986.0022165609661</v>
       </c>
       <c r="V28" t="n">
-        <v>1028.046300141056</v>
+        <v>731.3177283550792</v>
       </c>
       <c r="W28" t="n">
-        <v>1028.046300141056</v>
+        <v>731.3177283550792</v>
       </c>
       <c r="X28" t="n">
-        <v>1028.046300141056</v>
+        <v>503.3281774570619</v>
       </c>
       <c r="Y28" t="n">
-        <v>1028.046300141056</v>
+        <v>282.5355983135318</v>
       </c>
     </row>
     <row r="29">
@@ -6443,16 +6443,16 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
@@ -6461,13 +6461,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6546,16 +6546,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>600.4439501541583</v>
+        <v>439.5324299542172</v>
       </c>
       <c r="C31" t="n">
-        <v>487.268632507622</v>
+        <v>326.3571123076809</v>
       </c>
       <c r="D31" t="n">
-        <v>392.9128583766569</v>
+        <v>326.3571123076809</v>
       </c>
       <c r="E31" t="n">
-        <v>300.7606300756344</v>
+        <v>234.2048840066585</v>
       </c>
       <c r="F31" t="n">
-        <v>209.6315478590946</v>
+        <v>143.0758017901189</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864669</v>
+        <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933496</v>
+        <v>369.08763629335</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667502</v>
+        <v>671.4509053667507</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962045</v>
+        <v>997.668872196205</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286023</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
         <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021646</v>
+        <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056073</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899269</v>
+        <v>1880.81182489927</v>
       </c>
       <c r="S31" t="n">
-        <v>1880.811824899269</v>
+        <v>1736.652680096193</v>
       </c>
       <c r="T31" t="n">
-        <v>1712.787274970146</v>
+        <v>1568.62813016707</v>
       </c>
       <c r="U31" t="n">
-        <v>1479.419501465075</v>
+        <v>1335.260356661998</v>
       </c>
       <c r="V31" t="n">
-        <v>1280.495878540558</v>
+        <v>1136.336733737482</v>
       </c>
       <c r="W31" t="n">
-        <v>1046.839573784968</v>
+        <v>902.680428981892</v>
       </c>
       <c r="X31" t="n">
-        <v>891.3632635651868</v>
+        <v>730.4517433652454</v>
       </c>
       <c r="Y31" t="n">
-        <v>726.3315497030273</v>
+        <v>565.4200295030861</v>
       </c>
     </row>
     <row r="32">
@@ -6677,52 +6677,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6774,7 +6774,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6786,7 +6786,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6795,10 +6795,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,40 +6832,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083201</v>
+        <v>398.954596308321</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982967</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525402</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N34" t="n">
         <v>1386.860941116388</v>
@@ -6877,7 +6877,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045202</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010312</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6920,43 +6920,43 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6971,16 +6971,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7032,10 +7032,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,10 +7069,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229667</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D37" t="n">
         <v>478.0475988506723</v>
@@ -7081,25 +7081,25 @@
         <v>398.9545963083203</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504511</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525398</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254953</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7114,7 +7114,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045204</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.093169003441</v>
@@ -7160,64 +7160,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155895</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822469</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>474.7746905116418</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>721.5398184181058</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1028.859951698067</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7315,25 +7315,25 @@
         <v>478.0475988506723</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F40" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103126</v>
+        <v>221.5295092103133</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525401</v>
+        <v>177.0503551525402</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L40" t="n">
         <v>709.8489468649691</v>
@@ -7351,7 +7351,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
@@ -7363,7 +7363,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
         <v>1304.027639859416</v>
@@ -7506,10 +7506,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7546,22 +7546,22 @@
         <v>659.4602391108328</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229672</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G43" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028587</v>
@@ -7573,7 +7573,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649686</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7591,7 +7591,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7731,22 +7731,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>1196.088769018224</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,13 +7780,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108331</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E46" t="n">
         <v>398.9545963083204</v>
@@ -7807,10 +7807,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8307,13 +8307,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783515</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050818</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>96.03744927814714</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8784,13 +8784,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,31 +9003,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9182,10 +9182,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599059</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>234.4116509503169</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>96.0374492781458</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9638,7 +9638,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.145412571163</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>96.03744927814591</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10194,7 +10194,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10902,7 +10902,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>62.79465928983205</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10911,19 +10911,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11379,7 +11379,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>277.6717966208069</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,22 +23413,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23464,13 +23464,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>260.2595972617408</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>20.21615583834162</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>7.25046438247854</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -23707,19 +23707,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>149.7890506321123</v>
       </c>
     </row>
     <row r="17">
@@ -23893,22 +23893,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>86.9464053212361</v>
+        <v>50.96659166316005</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,10 +23941,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,22 +24175,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>83.34504921040082</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,28 +24409,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>172.1061746069724</v>
+        <v>64.30500338171942</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,16 +24598,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>129.4622093252335</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
@@ -24655,19 +24655,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>7.523933669539161</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.41221638965533</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>65.89018860828595</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897923</v>
+        <v>93.7105717389791</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571508</v>
+        <v>55.21598883571497</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550463</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>16.58485164289719</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25084,7 +25084,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>881650.7453192547</v>
+        <v>881650.7453192546</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>881650.7453192547</v>
+        <v>881650.7453192546</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>881650.7453192547</v>
+        <v>881650.7453192546</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>881650.7453192545</v>
+        <v>881650.7453192546</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>881650.7453192547</v>
+        <v>881650.7453192546</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>881650.7453192546</v>
+        <v>881650.7453192547</v>
       </c>
     </row>
     <row r="11">
@@ -26314,28 +26314,28 @@
         <v>533677.1504117841</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117846</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117846</v>
+        <v>533677.1504117844</v>
       </c>
       <c r="E2" t="n">
+        <v>508337.7776590215</v>
+      </c>
+      <c r="F2" t="n">
+        <v>508337.7776590215</v>
+      </c>
+      <c r="G2" t="n">
+        <v>508337.7776590215</v>
+      </c>
+      <c r="H2" t="n">
+        <v>508337.7776590215</v>
+      </c>
+      <c r="I2" t="n">
+        <v>508337.7776590215</v>
+      </c>
+      <c r="J2" t="n">
         <v>508337.7776590216</v>
-      </c>
-      <c r="F2" t="n">
-        <v>508337.7776590216</v>
-      </c>
-      <c r="G2" t="n">
-        <v>508337.7776590217</v>
-      </c>
-      <c r="H2" t="n">
-        <v>508337.7776590217</v>
-      </c>
-      <c r="I2" t="n">
-        <v>508337.7776590216</v>
-      </c>
-      <c r="J2" t="n">
-        <v>508337.7776590215</v>
       </c>
       <c r="K2" t="n">
         <v>528868.7785488506</v>
@@ -26344,16 +26344,16 @@
         <v>533677.1504117844</v>
       </c>
       <c r="M2" t="n">
-        <v>533677.1504117845</v>
+        <v>533677.1504117844</v>
       </c>
       <c r="N2" t="n">
-        <v>533677.1504117845</v>
+        <v>533677.1504117844</v>
       </c>
       <c r="O2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117844</v>
       </c>
       <c r="P2" t="n">
-        <v>533677.1504117845</v>
+        <v>533677.1504117844</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,22 +26381,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>3.482032298052218e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925927</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284548</v>
+        <v>44162.60530284562</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086701</v>
+        <v>10342.90680086693</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284548</v>
+        <v>44162.60530284564</v>
       </c>
     </row>
     <row r="4">
@@ -26427,34 +26427,34 @@
         <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687073</v>
       </c>
       <c r="G4" t="n">
         <v>22174.60758687072</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
         <v>22174.6075868707</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687073</v>
       </c>
       <c r="K4" t="n">
-        <v>40339.23010106721</v>
+        <v>40339.23010106725</v>
       </c>
       <c r="L4" t="n">
+        <v>44593.39482819121</v>
+      </c>
+      <c r="M4" t="n">
+        <v>44593.39482819122</v>
+      </c>
+      <c r="N4" t="n">
         <v>44593.39482819119</v>
       </c>
-      <c r="M4" t="n">
-        <v>44593.3948281912</v>
-      </c>
-      <c r="N4" t="n">
-        <v>44593.39482819117</v>
-      </c>
       <c r="O4" t="n">
-        <v>44593.3948281912</v>
+        <v>44593.39482819119</v>
       </c>
       <c r="P4" t="n">
         <v>44593.39482819119</v>
@@ -26476,13 +26476,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26491,19 +26491,19 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022278</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="O5" t="n">
         <v>97715.1058200254</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-304782.6746526943</v>
+        <v>-304782.6746526942</v>
       </c>
       <c r="C6" t="n">
-        <v>285185.2045618508</v>
+        <v>285185.2045618505</v>
       </c>
       <c r="D6" t="n">
-        <v>285185.2045618509</v>
+        <v>285185.2045618506</v>
       </c>
       <c r="E6" t="n">
-        <v>-130984.1923534618</v>
+        <v>-131081.6514794342</v>
       </c>
       <c r="F6" t="n">
-        <v>394175.8441234342</v>
+        <v>394078.384997462</v>
       </c>
       <c r="G6" t="n">
-        <v>394175.8441234343</v>
+        <v>394078.384997462</v>
       </c>
       <c r="H6" t="n">
-        <v>394175.8441234339</v>
+        <v>394078.384997462</v>
       </c>
       <c r="I6" t="n">
-        <v>394175.8441234343</v>
+        <v>394078.384997462</v>
       </c>
       <c r="J6" t="n">
-        <v>217752.6249308414</v>
+        <v>217655.1658048691</v>
       </c>
       <c r="K6" t="n">
-        <v>347738.7346147151</v>
+        <v>347720.2408767806</v>
       </c>
       <c r="L6" t="n">
-        <v>381025.7429627008</v>
+        <v>381025.7429627009</v>
       </c>
       <c r="M6" t="n">
         <v>256567.6345297308</v>
       </c>
       <c r="N6" t="n">
-        <v>391368.649763568</v>
+        <v>391368.6497635678</v>
       </c>
       <c r="O6" t="n">
-        <v>391368.6497635677</v>
+        <v>391368.6497635678</v>
       </c>
       <c r="P6" t="n">
-        <v>347206.0444607225</v>
+        <v>347206.0444607222</v>
       </c>
     </row>
   </sheetData>
@@ -26704,28 +26704,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N2" t="n">
         <v>68.13189012964064</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26738,34 +26738,34 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
-      <c r="D3" t="n">
-        <v>377.7436642170867</v>
-      </c>
       <c r="E3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="F3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="G3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="H3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="I3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="J3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="F3" t="n">
+      <c r="K3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="G3" t="n">
+      <c r="L3" t="n">
         <v>830.3824054541002</v>
-      </c>
-      <c r="H3" t="n">
-        <v>830.3824054541006</v>
-      </c>
-      <c r="I3" t="n">
-        <v>830.3824054541005</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="K3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="L3" t="n">
-        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
         <v>830.3824054541002</v>
@@ -26926,19 +26926,19 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855684</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108377</v>
+        <v>12.92863350108366</v>
       </c>
       <c r="M2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855684</v>
+        <v>55.20325662855705</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,13 +27163,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855684</v>
+        <v>55.20325662855702</v>
       </c>
     </row>
     <row r="3">
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27391,7 +27391,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>85.34635367328917</v>
+        <v>141.3118008624435</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27436,13 +27436,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27549,16 +27549,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>22.21426855158876</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,16 +27625,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>14.97888442104295</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>49.62510047478759</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,31 +27771,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>21.48825915525234</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>75.95753524357761</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,19 +27853,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27898,22 +27898,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>58.98421750338575</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>61.95678475475376</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>136.7057146380965</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28071,13 +28071,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>213.9280417223792</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -29323,7 +29323,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29515,19 +29515,19 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
         <v>2.842170943040401e-13</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="C31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="D31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="E31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="F31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="G31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="H31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="I31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="J31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="K31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="L31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="M31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="N31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="O31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="P31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="R31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="S31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="T31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="U31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="V31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="W31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="X31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855702</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="35">
@@ -30043,7 +30043,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="38">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104652</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,43 +32546,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361493</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337673</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,10 +32698,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,37 +32710,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,31 +32783,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32816,7 +32816,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>325.1459203262118</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730084</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>137.9476282330538</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
@@ -35495,16 +35495,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35902,10 +35902,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>384.9870895382561</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349819</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>137.9476282330525</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560245</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>525.556183571462</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303314</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>137.9476282330527</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556562</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,16 +36680,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556559</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,19 +36914,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412243</v>
+        <v>67.71102679412255</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584675</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
         <v>305.4174435084855</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075294</v>
+        <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
         <v>328.4801344341606</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491598</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403577</v>
+        <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043166</v>
+        <v>94.42895660043177</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,22 +37154,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37400,13 +37400,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520621</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37479,7 +37479,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
         <v>528.689756130333</v>
@@ -37622,7 +37622,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>213.3700978777713</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
@@ -37631,19 +37631,19 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37710,7 +37710,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
@@ -37874,13 +37874,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,7 +37947,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
@@ -38099,7 +38099,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>526.9295015768312</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504662</v>
@@ -38111,13 +38111,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,7 +38184,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
